--- a/mbs-perturbation/mega/svm/mega-svm-sigmoid-results.xlsx
+++ b/mbs-perturbation/mega/svm/mega-svm-sigmoid-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2844036697247707</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3949044585987262</v>
+        <v>0.272</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6713149641577061</v>
+        <v>0.6303203405017921</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5625</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7555555555555556</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7357750896057347</v>
+        <v>0.8855286738351253</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4902027027027027</v>
+        <v>0.9172297297297297</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.425531914893617</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.425531914893617</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="D5" t="n">
-        <v>0.425531914893617</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7514298787462823</v>
+        <v>0.8231525966598032</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02127659574468085</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6112445664607641</v>
+        <v>0.3249256463051933</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4389568138933745</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3726950354609929</v>
+        <v>0.3684397163120568</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3567026593138533</v>
+        <v>0.4165574897765374</v>
       </c>
       <c r="E7" t="n">
-        <v>0.651993440334638</v>
+        <v>0.7162313974063287</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/mega/svm/mega-svm-sigmoid-results.xlsx
+++ b/mbs-perturbation/mega/svm/mega-svm-sigmoid-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2207792207792208</v>
+        <v>0.1343283582089552</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3541666666666667</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="D2" t="n">
-        <v>0.272</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6303203405017921</v>
+        <v>0.4053926842388381</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7555555555555556</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8855286738351253</v>
+        <v>0.7572619688004304</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3541666666666667</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4197530864197531</v>
+        <v>0.8641975308641974</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9172297297297297</v>
+        <v>0.9675244254850695</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3829787234042553</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5538461538461539</v>
+        <v>0.3137254901960785</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8231525966598032</v>
+        <v>0.9137195541488924</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0425531914893617</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08163265306122448</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3249256463051933</v>
+        <v>0.6427686803357645</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.7444095312909138</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3684397163120568</v>
+        <v>0.3654334038054968</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4165574897765374</v>
+        <v>0.4491469801473125</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7162313974063287</v>
+        <v>0.737333462601799</v>
       </c>
     </row>
   </sheetData>
